--- a/data/Lakes/LakeHerbert_2f9facd890.xlsx
+++ b/data/Lakes/LakeHerbert_2f9facd890.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -643,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">

--- a/data/Lakes/LakeHerbert_2f9facd890.xlsx
+++ b/data/Lakes/LakeHerbert_2f9facd890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="286">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>22.000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.0200</t>
@@ -88,7 +88,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.0</t>
   </si>
   <si>
     <t>0.1140</t>
@@ -118,7 +118,7 @@
     <t>9.100</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -136,7 +136,7 @@
     <t>20.000</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
     <t>1.610</t>
@@ -148,7 +148,7 @@
     <t>0.0400</t>
   </si>
   <si>
-    <t>110</t>
+    <t>110.0</t>
   </si>
   <si>
     <t>0.8500</t>
@@ -157,7 +157,7 @@
     <t>0.04700</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>0.0110</t>
@@ -235,7 +235,7 @@
     <t>0.06600</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>0.0440</t>
@@ -265,7 +265,7 @@
     <t>27.000</t>
   </si>
   <si>
-    <t>420</t>
+    <t>420.0</t>
   </si>
   <si>
     <t>8.810</t>
@@ -310,7 +310,7 @@
     <t>0.01610</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>8.470</t>
@@ -340,7 +340,7 @@
     <t>0.00200</t>
   </si>
   <si>
-    <t>34</t>
+    <t>34.0</t>
   </si>
   <si>
     <t>8.020</t>
@@ -379,7 +379,7 @@
     <t>0.0370</t>
   </si>
   <si>
-    <t>49</t>
+    <t>49.0</t>
   </si>
   <si>
     <t>7.990</t>
@@ -427,6 +427,9 @@
     <t>6.200</t>
   </si>
   <si>
+    <t>12.4</t>
+  </si>
+  <si>
     <t>7.380</t>
   </si>
   <si>
@@ -451,7 +454,7 @@
     <t>0.00890</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.4</t>
   </si>
   <si>
     <t>7.690</t>
@@ -472,6 +475,9 @@
     <t>0.0460</t>
   </si>
   <si>
+    <t>25.2</t>
+  </si>
+  <si>
     <t>7.190</t>
   </si>
   <si>
@@ -529,6 +535,9 @@
     <t>0.0410</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>7.440</t>
   </si>
   <si>
@@ -547,6 +556,9 @@
     <t>0.03300</t>
   </si>
   <si>
+    <t>29.6</t>
+  </si>
+  <si>
     <t>7.850</t>
   </si>
   <si>
@@ -562,7 +574,7 @@
     <t>0.0210</t>
   </si>
   <si>
-    <t>109</t>
+    <t>108.8</t>
   </si>
   <si>
     <t>7.310</t>
@@ -700,7 +712,7 @@
     <t>0.00480</t>
   </si>
   <si>
-    <t>24</t>
+    <t>24.0</t>
   </si>
   <si>
     <t>7.830</t>
@@ -712,6 +724,102 @@
     <t>0.02700</t>
   </si>
   <si>
+    <t>0.00080</t>
+  </si>
+  <si>
+    <t>0.0070</t>
+  </si>
+  <si>
+    <t>8.060</t>
+  </si>
+  <si>
+    <t>0.00780</t>
+  </si>
+  <si>
+    <t>7.870</t>
+  </si>
+  <si>
+    <t>1.060</t>
+  </si>
+  <si>
+    <t>0.02820</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>8.050</t>
+  </si>
+  <si>
+    <t>1.230</t>
+  </si>
+  <si>
+    <t>0.03200</t>
+  </si>
+  <si>
+    <t>0.06040</t>
+  </si>
+  <si>
+    <t>23.000</t>
+  </si>
+  <si>
+    <t>7.710</t>
+  </si>
+  <si>
+    <t>0.1130</t>
+  </si>
+  <si>
+    <t>1.650</t>
+  </si>
+  <si>
+    <t>0.06100</t>
+  </si>
+  <si>
+    <t>0.2400</t>
+  </si>
+  <si>
+    <t>1.900</t>
+  </si>
+  <si>
+    <t>7.580</t>
+  </si>
+  <si>
+    <t>0.4890</t>
+  </si>
+  <si>
+    <t>0.03900</t>
+  </si>
+  <si>
+    <t>0.00520</t>
+  </si>
+  <si>
+    <t>7.470</t>
+  </si>
+  <si>
+    <t>0.1490</t>
+  </si>
+  <si>
+    <t>59.2</t>
+  </si>
+  <si>
+    <t>8.310</t>
+  </si>
+  <si>
+    <t>0.0510</t>
+  </si>
+  <si>
+    <t>1.050</t>
+  </si>
+  <si>
+    <t>0.00190</t>
+  </si>
+  <si>
+    <t>5.500</t>
+  </si>
+  <si>
+    <t>1.100</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -746,6 +854,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1122,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1282,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1191,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1211,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1231,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1285,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1305,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1325,7 +1436,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1345,7 +1456,7 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1399,7 +1510,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1419,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1439,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1459,7 +1570,7 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1513,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1533,7 +1644,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1553,7 +1664,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1573,7 +1684,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1627,7 +1738,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1647,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1667,7 +1778,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1687,7 +1798,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1741,7 +1852,7 @@
         <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1761,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1781,7 +1892,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1801,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1855,7 +1966,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1875,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -1895,7 +2006,7 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1915,7 +2026,7 @@
         <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1969,7 +2080,7 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -1989,7 +2100,7 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2009,7 +2120,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2029,7 +2140,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -2083,7 +2194,7 @@
         <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H50">
         <v>200</v>
@@ -2103,7 +2214,7 @@
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2123,7 +2234,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2143,7 +2254,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H53">
         <v>200</v>
@@ -2197,13 +2308,13 @@
         <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2223,13 +2334,13 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G57" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2249,13 +2360,13 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F58" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G58" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2275,10 +2386,10 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2298,10 +2409,10 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2321,13 +2432,13 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G61" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2347,13 +2458,13 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F62" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2373,13 +2484,13 @@
         <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F63" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2399,10 +2510,10 @@
         <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2422,10 +2533,10 @@
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2445,13 +2556,13 @@
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2471,13 +2582,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F67" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G67" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2497,13 +2608,13 @@
         <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F68" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2523,10 +2634,10 @@
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F69" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2546,10 +2657,10 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F70" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2569,13 +2680,13 @@
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2595,13 +2706,13 @@
         <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F72" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2621,13 +2732,13 @@
         <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F73" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2647,13 +2758,13 @@
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G74" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2673,10 +2784,10 @@
         <v>71</v>
       </c>
       <c r="E75" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F75" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2696,10 +2807,10 @@
         <v>72</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F76" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2719,13 +2830,13 @@
         <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F77" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G77" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2745,13 +2856,13 @@
         <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F78" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2771,13 +2882,13 @@
         <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2797,13 +2908,13 @@
         <v>74</v>
       </c>
       <c r="E80" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F80" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G80" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2823,10 +2934,10 @@
         <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F81" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2846,10 +2957,10 @@
         <v>76</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F82" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2869,13 +2980,13 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G83" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2895,13 +3006,13 @@
         <v>77</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G84" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2921,13 +3032,13 @@
         <v>73</v>
       </c>
       <c r="E85" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F85" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G85" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2947,13 +3058,13 @@
         <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F86" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2973,10 +3084,10 @@
         <v>78</v>
       </c>
       <c r="E87" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F87" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -2996,10 +3107,10 @@
         <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3019,7 +3130,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3039,13 +3150,13 @@
         <v>81</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F90" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="G90" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3068,13 +3179,13 @@
         <v>82</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F91" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G91" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3097,13 +3208,13 @@
         <v>83</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F92" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G92" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3126,7 +3237,7 @@
         <v>84</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -3152,13 +3263,13 @@
         <v>59</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G94" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3181,10 +3292,10 @@
         <v>85</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="H95">
         <v>500</v>
@@ -3207,10 +3318,10 @@
         <v>86</v>
       </c>
       <c r="E96" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F96" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H96">
         <v>500</v>
@@ -3233,7 +3344,7 @@
         <v>87</v>
       </c>
       <c r="G97" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3253,13 +3364,13 @@
         <v>88</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F98" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G98" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3282,13 +3393,13 @@
         <v>89</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F99" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3311,13 +3422,13 @@
         <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F100" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G100" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3340,7 +3451,7 @@
         <v>90</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G101" t="s">
         <v>8</v>
@@ -3366,13 +3477,13 @@
         <v>91</v>
       </c>
       <c r="E102" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F102" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G102" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3395,10 +3506,10 @@
         <v>92</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F103" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3421,10 +3532,10 @@
         <v>46</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F104" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3447,7 +3558,7 @@
         <v>93</v>
       </c>
       <c r="G105" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3467,13 +3578,13 @@
         <v>94</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G106" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3493,13 +3604,13 @@
         <v>58</v>
       </c>
       <c r="E107" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F107" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3519,13 +3630,13 @@
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F108" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G108" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3545,13 +3656,13 @@
         <v>35</v>
       </c>
       <c r="E109" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G109" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3571,10 +3682,10 @@
         <v>95</v>
       </c>
       <c r="E110" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F110" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3594,10 +3705,10 @@
         <v>96</v>
       </c>
       <c r="E111" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F111" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3617,7 +3728,7 @@
         <v>97</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3637,13 +3748,13 @@
         <v>59</v>
       </c>
       <c r="E113" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F113" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G113" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3666,13 +3777,13 @@
         <v>55</v>
       </c>
       <c r="E114" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G114" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3695,13 +3806,13 @@
         <v>98</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F115" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G115" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3724,7 +3835,7 @@
         <v>99</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G116" t="s">
         <v>8</v>
@@ -3750,13 +3861,13 @@
         <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F117" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G117" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3779,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F118" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3805,10 +3916,10 @@
         <v>101</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F119" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3831,7 +3942,7 @@
         <v>102</v>
       </c>
       <c r="G120" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3851,13 +3962,13 @@
         <v>103</v>
       </c>
       <c r="E121" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F121" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G121" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3880,13 +3991,13 @@
         <v>104</v>
       </c>
       <c r="E122" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G122" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3909,13 +4020,13 @@
         <v>73</v>
       </c>
       <c r="E123" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G123" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3938,7 +4049,7 @@
         <v>105</v>
       </c>
       <c r="E124" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G124" t="s">
         <v>8</v>
@@ -3964,13 +4075,13 @@
         <v>94</v>
       </c>
       <c r="E125" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F125" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G125" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -3993,10 +4104,10 @@
         <v>106</v>
       </c>
       <c r="E126" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4019,10 +4130,10 @@
         <v>61</v>
       </c>
       <c r="E127" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F127" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4045,7 +4156,7 @@
         <v>107</v>
       </c>
       <c r="G128" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4065,13 +4176,13 @@
         <v>91</v>
       </c>
       <c r="E129" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F129" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G129" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4094,13 +4205,13 @@
         <v>104</v>
       </c>
       <c r="E130" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G130" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4123,13 +4234,13 @@
         <v>108</v>
       </c>
       <c r="E131" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G131" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4152,7 +4263,7 @@
         <v>109</v>
       </c>
       <c r="E132" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G132" t="s">
         <v>8</v>
@@ -4178,13 +4289,13 @@
         <v>110</v>
       </c>
       <c r="E133" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F133" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G133" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4207,10 +4318,10 @@
         <v>111</v>
       </c>
       <c r="E134" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F134" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4233,10 +4344,10 @@
         <v>112</v>
       </c>
       <c r="E135" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F135" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4259,7 +4370,7 @@
         <v>113</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4279,13 +4390,13 @@
         <v>114</v>
       </c>
       <c r="E137" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G137" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4308,13 +4419,13 @@
         <v>115</v>
       </c>
       <c r="E138" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F138" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G138" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4337,13 +4448,13 @@
         <v>47</v>
       </c>
       <c r="E139" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G139" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4366,7 +4477,7 @@
         <v>116</v>
       </c>
       <c r="E140" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G140" t="s">
         <v>8</v>
@@ -4392,13 +4503,13 @@
         <v>35</v>
       </c>
       <c r="E141" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G141" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4421,10 +4532,10 @@
         <v>117</v>
       </c>
       <c r="E142" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4447,10 +4558,10 @@
         <v>118</v>
       </c>
       <c r="E143" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4473,7 +4584,7 @@
         <v>119</v>
       </c>
       <c r="G144" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4493,13 +4604,13 @@
         <v>120</v>
       </c>
       <c r="E145" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G145" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4522,13 +4633,13 @@
         <v>121</v>
       </c>
       <c r="E146" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G146" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4551,7 +4662,7 @@
         <v>122</v>
       </c>
       <c r="E147" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G147" t="s">
         <v>8</v>
@@ -4577,13 +4688,13 @@
         <v>123</v>
       </c>
       <c r="E148" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F148" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G148" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4606,10 +4717,10 @@
         <v>124</v>
       </c>
       <c r="E149" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F149" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4632,10 +4743,10 @@
         <v>125</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F150" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4658,7 +4769,7 @@
         <v>126</v>
       </c>
       <c r="G151" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4678,13 +4789,13 @@
         <v>127</v>
       </c>
       <c r="E152" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F152" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G152" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4707,13 +4818,13 @@
         <v>128</v>
       </c>
       <c r="E153" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F153" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G153" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -4736,13 +4847,13 @@
         <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F154" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G154" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -4765,7 +4876,7 @@
         <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G155" t="s">
         <v>8</v>
@@ -4791,13 +4902,13 @@
         <v>130</v>
       </c>
       <c r="E156" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F156" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G156" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -4820,10 +4931,10 @@
         <v>92</v>
       </c>
       <c r="E157" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F157" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -4846,10 +4957,10 @@
         <v>131</v>
       </c>
       <c r="E158" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F158" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -4872,7 +4983,7 @@
         <v>87</v>
       </c>
       <c r="G159" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -4892,13 +5003,13 @@
         <v>130</v>
       </c>
       <c r="E160" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F160" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="G160" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -4921,13 +5032,13 @@
         <v>58</v>
       </c>
       <c r="E161" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F161" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G161" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -4950,13 +5061,13 @@
         <v>73</v>
       </c>
       <c r="E162" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F162" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G162" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -4979,7 +5090,7 @@
         <v>132</v>
       </c>
       <c r="E163" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G163" t="s">
         <v>8</v>
@@ -5005,13 +5116,13 @@
         <v>35</v>
       </c>
       <c r="E164" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F164" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G164" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5034,10 +5145,10 @@
         <v>133</v>
       </c>
       <c r="E165" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F165" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5060,10 +5171,10 @@
         <v>61</v>
       </c>
       <c r="E166" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F166" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5086,7 +5197,7 @@
         <v>134</v>
       </c>
       <c r="G167" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5106,13 +5217,13 @@
         <v>135</v>
       </c>
       <c r="E168" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F168" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G168" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5135,13 +5246,13 @@
         <v>136</v>
       </c>
       <c r="E169" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F169" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G169" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5161,16 +5272,16 @@
         <v>44550.47916666666</v>
       </c>
       <c r="D170" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E170" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F170" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G170" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5190,10 +5301,10 @@
         <v>44550.47916666666</v>
       </c>
       <c r="D171" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E171" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G171" t="s">
         <v>8</v>
@@ -5216,16 +5327,16 @@
         <v>44550.47916666666</v>
       </c>
       <c r="D172" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E172" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G172" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5248,10 +5359,10 @@
         <v>111</v>
       </c>
       <c r="E173" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F173" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5274,10 +5385,10 @@
         <v>37</v>
       </c>
       <c r="E174" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F174" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5297,10 +5408,10 @@
         <v>44580</v>
       </c>
       <c r="D175" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G175" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5317,16 +5428,16 @@
         <v>44580.40625</v>
       </c>
       <c r="D176" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E176" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F176" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G176" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5346,16 +5457,16 @@
         <v>44580.40625</v>
       </c>
       <c r="D177" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E177" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F177" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G177" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5375,16 +5486,16 @@
         <v>44580.40625</v>
       </c>
       <c r="D178" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E178" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F178" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G178" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5404,10 +5515,10 @@
         <v>44580.40625</v>
       </c>
       <c r="D179" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E179" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G179" t="s">
         <v>8</v>
@@ -5433,13 +5544,13 @@
         <v>35</v>
       </c>
       <c r="E180" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F180" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G180" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5462,10 +5573,10 @@
         <v>67</v>
       </c>
       <c r="E181" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F181" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5485,13 +5596,13 @@
         <v>44580.40625</v>
       </c>
       <c r="D182" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E182" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F182" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5511,10 +5622,10 @@
         <v>44602</v>
       </c>
       <c r="D183" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G183" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5534,13 +5645,13 @@
         <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F184" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G184" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5560,16 +5671,16 @@
         <v>44602.39861111111</v>
       </c>
       <c r="D185" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E185" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F185" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G185" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5589,16 +5700,16 @@
         <v>44602.39861111111</v>
       </c>
       <c r="D186" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E186" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F186" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G186" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5618,10 +5729,10 @@
         <v>44602.39861111111</v>
       </c>
       <c r="D187" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E187" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G187" t="s">
         <v>8</v>
@@ -5644,16 +5755,16 @@
         <v>44602.39861111111</v>
       </c>
       <c r="D188" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E188" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F188" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G188" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5673,13 +5784,13 @@
         <v>44602.39861111111</v>
       </c>
       <c r="D189" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E189" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F189" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5699,13 +5810,13 @@
         <v>44602.39861111111</v>
       </c>
       <c r="D190" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E190" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F190" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5725,10 +5836,10 @@
         <v>44621</v>
       </c>
       <c r="D191" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G191" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5745,16 +5856,16 @@
         <v>44621.47222222222</v>
       </c>
       <c r="D192" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E192" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F192" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G192" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -5777,13 +5888,13 @@
         <v>58</v>
       </c>
       <c r="E193" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F193" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G193" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -5803,16 +5914,16 @@
         <v>44621.47222222222</v>
       </c>
       <c r="D194" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E194" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F194" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G194" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -5832,10 +5943,10 @@
         <v>44621.47222222222</v>
       </c>
       <c r="D195" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E195" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G195" t="s">
         <v>8</v>
@@ -5858,16 +5969,16 @@
         <v>44621.47222222222</v>
       </c>
       <c r="D196" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E196" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F196" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G196" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -5887,13 +5998,13 @@
         <v>44621.47222222222</v>
       </c>
       <c r="D197" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E197" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F197" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -5916,10 +6027,10 @@
         <v>46</v>
       </c>
       <c r="E198" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F198" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -5939,10 +6050,10 @@
         <v>44656</v>
       </c>
       <c r="D199" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G199" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -5962,13 +6073,13 @@
         <v>127</v>
       </c>
       <c r="E200" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F200" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G200" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -5991,13 +6102,13 @@
         <v>89</v>
       </c>
       <c r="E201" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F201" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G201" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6020,13 +6131,13 @@
         <v>73</v>
       </c>
       <c r="E202" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F202" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G202" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6046,10 +6157,10 @@
         <v>44656.43333333333</v>
       </c>
       <c r="D203" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E203" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G203" t="s">
         <v>8</v>
@@ -6075,13 +6186,13 @@
         <v>114</v>
       </c>
       <c r="E204" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F204" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G204" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6101,13 +6212,13 @@
         <v>44656.43333333333</v>
       </c>
       <c r="D205" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E205" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F205" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6127,13 +6238,13 @@
         <v>44656.43333333333</v>
       </c>
       <c r="D206" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E206" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F206" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6153,10 +6264,10 @@
         <v>44767.00048611111</v>
       </c>
       <c r="D207" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G207" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6173,16 +6284,16 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D208" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E208" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F208" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G208" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6202,16 +6313,16 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D209" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E209" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F209" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G209" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6231,16 +6342,16 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D210" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E210" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F210" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G210" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6260,10 +6371,10 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D211" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E211" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G211" t="s">
         <v>8</v>
@@ -6286,16 +6397,16 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D212" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E212" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F212" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G212" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6315,13 +6426,13 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D213" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E213" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F213" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6341,13 +6452,13 @@
         <v>44767.42847222222</v>
       </c>
       <c r="D214" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E214" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F214" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6367,10 +6478,10 @@
         <v>44774.00048611111</v>
       </c>
       <c r="D215" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G215" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6387,16 +6498,16 @@
         <v>44774.50972222222</v>
       </c>
       <c r="D216" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E216" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F216" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G216" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6419,13 +6530,13 @@
         <v>23</v>
       </c>
       <c r="E217" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F217" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G217" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6448,13 +6559,13 @@
         <v>34</v>
       </c>
       <c r="E218" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F218" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G218" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6474,10 +6585,10 @@
         <v>44774.50972222222</v>
       </c>
       <c r="D219" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E219" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G219" t="s">
         <v>8</v>
@@ -6500,16 +6611,16 @@
         <v>44774.50972222222</v>
       </c>
       <c r="D220" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E220" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F220" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G220" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6529,13 +6640,13 @@
         <v>44774.50972222222</v>
       </c>
       <c r="D221" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E221" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F221" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6555,13 +6666,13 @@
         <v>44774.50972222222</v>
       </c>
       <c r="D222" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E222" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F222" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6581,10 +6692,10 @@
         <v>44811.00048611111</v>
       </c>
       <c r="D223" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G223" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6601,16 +6712,16 @@
         <v>44811.42361111111</v>
       </c>
       <c r="D224" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E224" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G224" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6633,13 +6744,13 @@
         <v>23</v>
       </c>
       <c r="E225" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F225" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G225" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6659,16 +6770,16 @@
         <v>44811.42361111111</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="E226" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F226" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G226" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6688,10 +6799,10 @@
         <v>44811.42361111111</v>
       </c>
       <c r="D227" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E227" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G227" t="s">
         <v>8</v>
@@ -6717,13 +6828,13 @@
         <v>38</v>
       </c>
       <c r="E228" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F228" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G228" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6743,13 +6854,13 @@
         <v>44811.42361111111</v>
       </c>
       <c r="D229" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E229" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F229" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6772,10 +6883,10 @@
         <v>27</v>
       </c>
       <c r="E230" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F230" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -6795,10 +6906,10 @@
         <v>44860.00048611111</v>
       </c>
       <c r="D231" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G231" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -6815,16 +6926,16 @@
         <v>44860.37847222222</v>
       </c>
       <c r="D232" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E232" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G232" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -6847,13 +6958,13 @@
         <v>23</v>
       </c>
       <c r="E233" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F233" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G233" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -6876,13 +6987,13 @@
         <v>73</v>
       </c>
       <c r="E234" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F234" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G234" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -6902,10 +7013,10 @@
         <v>44860.37847222222</v>
       </c>
       <c r="D235" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E235" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G235" t="s">
         <v>8</v>
@@ -6931,13 +7042,13 @@
         <v>62</v>
       </c>
       <c r="E236" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F236" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G236" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -6960,10 +7071,10 @@
         <v>133</v>
       </c>
       <c r="E237" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F237" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -6983,13 +7094,13 @@
         <v>44860.37847222222</v>
       </c>
       <c r="D238" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E238" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F238" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7009,10 +7120,10 @@
         <v>44886.00048611111</v>
       </c>
       <c r="D239" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G239" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7029,16 +7140,16 @@
         <v>44886.38888888889</v>
       </c>
       <c r="D240" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E240" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F240" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G240" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7061,13 +7172,13 @@
         <v>77</v>
       </c>
       <c r="E241" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F241" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G241" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7087,16 +7198,16 @@
         <v>44886.38888888889</v>
       </c>
       <c r="D242" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="E242" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F242" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G242" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7116,10 +7227,10 @@
         <v>44886.38888888889</v>
       </c>
       <c r="D243" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E243" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G243" t="s">
         <v>8</v>
@@ -7145,13 +7256,13 @@
         <v>35</v>
       </c>
       <c r="E244" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F244" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G244" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7171,13 +7282,13 @@
         <v>44886.38888888889</v>
       </c>
       <c r="D245" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E245" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F245" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7197,13 +7308,13 @@
         <v>44886.38888888889</v>
       </c>
       <c r="D246" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E246" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F246" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7223,10 +7334,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D247" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G247" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7243,16 +7354,16 @@
         <v>44914.38125</v>
       </c>
       <c r="D248" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E248" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F248" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G248" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7275,13 +7386,13 @@
         <v>23</v>
       </c>
       <c r="E249" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F249" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G249" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7301,16 +7412,16 @@
         <v>44914.38125</v>
       </c>
       <c r="D250" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E250" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F250" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G250" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7330,10 +7441,10 @@
         <v>44914.38125</v>
       </c>
       <c r="D251" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E251" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G251" t="s">
         <v>8</v>
@@ -7359,13 +7470,13 @@
         <v>35</v>
       </c>
       <c r="E252" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F252" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G252" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7385,13 +7496,13 @@
         <v>44914.38125</v>
       </c>
       <c r="D253" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E253" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F253" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7411,13 +7522,13 @@
         <v>44914.38125</v>
       </c>
       <c r="D254" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E254" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F254" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7437,10 +7548,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D255" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G255" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7457,16 +7568,16 @@
         <v>44952.36666666667</v>
       </c>
       <c r="D256" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E256" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F256" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G256" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H256">
         <v>500</v>
@@ -7486,16 +7597,16 @@
         <v>44952.36666666667</v>
       </c>
       <c r="D257" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E257" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F257" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G257" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H257">
         <v>500</v>
@@ -7518,13 +7629,13 @@
         <v>34</v>
       </c>
       <c r="E258" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F258" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G258" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7544,10 +7655,10 @@
         <v>44952.36666666667</v>
       </c>
       <c r="D259" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E259" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G259" t="s">
         <v>8</v>
@@ -7570,16 +7681,16 @@
         <v>44952.36666666667</v>
       </c>
       <c r="D260" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E260" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F260" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G260" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7599,13 +7710,13 @@
         <v>44952.36666666667</v>
       </c>
       <c r="D261" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E261" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F261" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7628,10 +7739,10 @@
         <v>27</v>
       </c>
       <c r="E262" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F262" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7651,10 +7762,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D263" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G263" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7671,16 +7782,16 @@
         <v>44978.41666666666</v>
       </c>
       <c r="D264" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E264" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F264" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G264" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7700,16 +7811,16 @@
         <v>44978.41666666666</v>
       </c>
       <c r="D265" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E265" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F265" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G265" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7732,13 +7843,13 @@
         <v>34</v>
       </c>
       <c r="E266" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F266" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G266" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7758,10 +7869,10 @@
         <v>44978.41666666666</v>
       </c>
       <c r="D267" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E267" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G267" t="s">
         <v>8</v>
@@ -7784,16 +7895,16 @@
         <v>44978.41666666666</v>
       </c>
       <c r="D268" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E268" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F268" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G268" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -7813,13 +7924,13 @@
         <v>44978.41666666666</v>
       </c>
       <c r="D269" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E269" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F269" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H269">
         <v>500</v>
@@ -7839,13 +7950,13 @@
         <v>44978.41666666666</v>
       </c>
       <c r="D270" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E270" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F270" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -7865,10 +7976,10 @@
         <v>45008.00048611111</v>
       </c>
       <c r="D271" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G271" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -7885,16 +7996,16 @@
         <v>45008.43819444445</v>
       </c>
       <c r="D272" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E272" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F272" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G272" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H272">
         <v>500</v>
@@ -7917,13 +8028,13 @@
         <v>128</v>
       </c>
       <c r="E273" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F273" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G273" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -7943,16 +8054,16 @@
         <v>45008.43819444445</v>
       </c>
       <c r="D274" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E274" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F274" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G274" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -7972,10 +8083,10 @@
         <v>45008.43819444445</v>
       </c>
       <c r="D275" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E275" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G275" t="s">
         <v>8</v>
@@ -7998,16 +8109,16 @@
         <v>45008.43819444445</v>
       </c>
       <c r="D276" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E276" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F276" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G276" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8027,13 +8138,13 @@
         <v>45008.43819444445</v>
       </c>
       <c r="D277" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E277" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F277" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8053,13 +8164,13 @@
         <v>45008.43819444445</v>
       </c>
       <c r="D278" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E278" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F278" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8079,10 +8190,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D279" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G279" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8099,16 +8210,16 @@
         <v>45027.41597222222</v>
       </c>
       <c r="D280" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E280" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F280" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G280" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H280">
         <v>500</v>
@@ -8131,13 +8242,13 @@
         <v>23</v>
       </c>
       <c r="E281" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F281" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G281" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8157,16 +8268,16 @@
         <v>45027.41597222222</v>
       </c>
       <c r="D282" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E282" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F282" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G282" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8186,10 +8297,10 @@
         <v>45027.41597222222</v>
       </c>
       <c r="D283" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E283" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G283" t="s">
         <v>8</v>
@@ -8212,16 +8323,16 @@
         <v>45027.41597222222</v>
       </c>
       <c r="D284" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E284" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F284" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G284" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8241,13 +8352,13 @@
         <v>45027.41597222222</v>
       </c>
       <c r="D285" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E285" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F285" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8267,13 +8378,13 @@
         <v>45027.41597222222</v>
       </c>
       <c r="D286" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E286" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F286" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8293,10 +8404,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D287" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G287" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8313,16 +8424,16 @@
         <v>45127.48680555556</v>
       </c>
       <c r="D288" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E288" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F288" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G288" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8345,13 +8456,13 @@
         <v>23</v>
       </c>
       <c r="E289" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F289" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G289" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8374,13 +8485,13 @@
         <v>73</v>
       </c>
       <c r="E290" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F290" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G290" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8403,7 +8514,7 @@
         <v>129</v>
       </c>
       <c r="E291" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G291" t="s">
         <v>8</v>
@@ -8429,13 +8540,13 @@
         <v>69</v>
       </c>
       <c r="E292" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F292" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G292" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H292">
         <v>500</v>
@@ -8458,10 +8569,10 @@
         <v>78</v>
       </c>
       <c r="E293" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F293" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8481,13 +8592,13 @@
         <v>45127.48680555556</v>
       </c>
       <c r="D294" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E294" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F294" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8507,10 +8618,10 @@
         <v>45155.00048611111</v>
       </c>
       <c r="D295" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G295" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8527,16 +8638,16 @@
         <v>45155.42847222222</v>
       </c>
       <c r="D296" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E296" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F296" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G296" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8559,13 +8670,13 @@
         <v>23</v>
       </c>
       <c r="E297" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F297" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G297" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8588,13 +8699,13 @@
         <v>34</v>
       </c>
       <c r="E298" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F298" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G298" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8614,10 +8725,10 @@
         <v>45155.42847222222</v>
       </c>
       <c r="D299" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E299" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G299" t="s">
         <v>8</v>
@@ -8640,16 +8751,16 @@
         <v>45155.42847222222</v>
       </c>
       <c r="D300" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E300" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F300" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G300" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8669,13 +8780,13 @@
         <v>45155.42847222222</v>
       </c>
       <c r="D301" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E301" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F301" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8695,13 +8806,13 @@
         <v>45155.42847222222</v>
       </c>
       <c r="D302" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E302" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F302" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8721,10 +8832,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D303" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G303" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8741,16 +8852,16 @@
         <v>45197.325</v>
       </c>
       <c r="D304" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E304" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F304" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G304" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8773,13 +8884,13 @@
         <v>128</v>
       </c>
       <c r="E305" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F305" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G305" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -8799,16 +8910,16 @@
         <v>45197.325</v>
       </c>
       <c r="D306" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E306" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F306" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G306" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -8828,10 +8939,10 @@
         <v>45197.325</v>
       </c>
       <c r="D307" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E307" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G307" t="s">
         <v>8</v>
@@ -8854,16 +8965,16 @@
         <v>45197.325</v>
       </c>
       <c r="D308" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E308" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F308" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G308" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -8883,13 +8994,13 @@
         <v>45197.325</v>
       </c>
       <c r="D309" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E309" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F309" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -8909,13 +9020,13 @@
         <v>45197.325</v>
       </c>
       <c r="D310" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E310" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F310" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -8935,10 +9046,10 @@
         <v>45210.00048611111</v>
       </c>
       <c r="D311" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G311" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -8955,16 +9066,16 @@
         <v>45210.46180555555</v>
       </c>
       <c r="D312" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E312" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F312" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G312" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -8987,13 +9098,13 @@
         <v>58</v>
       </c>
       <c r="E313" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F313" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G313" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9013,16 +9124,16 @@
         <v>45210.46180555555</v>
       </c>
       <c r="D314" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E314" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F314" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G314" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9042,10 +9153,10 @@
         <v>45210.46180555555</v>
       </c>
       <c r="D315" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E315" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G315" t="s">
         <v>8</v>
@@ -9071,13 +9182,13 @@
         <v>114</v>
       </c>
       <c r="E316" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F316" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G316" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9097,13 +9208,13 @@
         <v>45210.46180555555</v>
       </c>
       <c r="D317" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E317" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F317" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9123,13 +9234,13 @@
         <v>45210.46180555555</v>
       </c>
       <c r="D318" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E318" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F318" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9149,10 +9260,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D319" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G319" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9169,16 +9280,16 @@
         <v>45253.37708333333</v>
       </c>
       <c r="D320" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E320" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F320" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G320" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9198,16 +9309,16 @@
         <v>45253.37708333333</v>
       </c>
       <c r="D321" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E321" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F321" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G321" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9230,13 +9341,13 @@
         <v>47</v>
       </c>
       <c r="E322" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F322" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G322" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H322">
         <v>600</v>
@@ -9256,10 +9367,10 @@
         <v>45253.37708333333</v>
       </c>
       <c r="D323" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E323" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G323" t="s">
         <v>8</v>
@@ -9282,16 +9393,16 @@
         <v>45253.37708333333</v>
       </c>
       <c r="D324" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E324" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F324" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G324" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9314,10 +9425,10 @@
         <v>60</v>
       </c>
       <c r="E325" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F325" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9337,13 +9448,13 @@
         <v>45253.37708333333</v>
       </c>
       <c r="D326" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E326" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F326" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9363,10 +9474,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D327" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G327" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9383,16 +9494,16 @@
         <v>45280.43194444444</v>
       </c>
       <c r="D328" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E328" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F328" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="G328" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9415,13 +9526,13 @@
         <v>23</v>
       </c>
       <c r="E329" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F329" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="G329" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H329">
         <v>600</v>
@@ -9441,16 +9552,16 @@
         <v>45280.43194444444</v>
       </c>
       <c r="D330" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E330" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F330" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G330" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="H330">
         <v>600</v>
@@ -9470,10 +9581,10 @@
         <v>45280.43194444444</v>
       </c>
       <c r="D331" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E331" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G331" t="s">
         <v>8</v>
@@ -9496,16 +9607,16 @@
         <v>45280.43194444444</v>
       </c>
       <c r="D332" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E332" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F332" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G332" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -9528,10 +9639,10 @@
         <v>95</v>
       </c>
       <c r="E333" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F333" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="H333">
         <v>600</v>
@@ -9551,19 +9662,1731 @@
         <v>45280.43194444444</v>
       </c>
       <c r="D334" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E334" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F334" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H334">
         <v>600</v>
       </c>
       <c r="I334">
         <v>7.83</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>16</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D335" t="s">
+        <v>236</v>
+      </c>
+      <c r="G335" t="s">
+        <v>285</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D336" t="s">
+        <v>237</v>
+      </c>
+      <c r="E336" t="s">
+        <v>268</v>
+      </c>
+      <c r="F336" t="s">
+        <v>278</v>
+      </c>
+      <c r="G336" t="s">
+        <v>281</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+      <c r="I336">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D337" t="s">
+        <v>58</v>
+      </c>
+      <c r="E337" t="s">
+        <v>268</v>
+      </c>
+      <c r="F337" t="s">
+        <v>270</v>
+      </c>
+      <c r="G337" t="s">
+        <v>282</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D338" t="s">
+        <v>73</v>
+      </c>
+      <c r="E338" t="s">
+        <v>268</v>
+      </c>
+      <c r="F338" t="s">
+        <v>274</v>
+      </c>
+      <c r="G338" t="s">
+        <v>283</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+      <c r="I338">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D339" t="s">
+        <v>238</v>
+      </c>
+      <c r="E339" t="s">
+        <v>268</v>
+      </c>
+      <c r="G339" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D340" t="s">
+        <v>221</v>
+      </c>
+      <c r="E340" t="s">
+        <v>268</v>
+      </c>
+      <c r="F340" t="s">
+        <v>279</v>
+      </c>
+      <c r="G340" t="s">
+        <v>284</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D341" t="s">
+        <v>165</v>
+      </c>
+      <c r="E341" t="s">
+        <v>268</v>
+      </c>
+      <c r="F341" t="s">
+        <v>276</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+      <c r="I341">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45308.40694444445</v>
+      </c>
+      <c r="D342" t="s">
+        <v>235</v>
+      </c>
+      <c r="E342" t="s">
+        <v>268</v>
+      </c>
+      <c r="F342" t="s">
+        <v>277</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+      <c r="I342">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>16</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D343" t="s">
+        <v>239</v>
+      </c>
+      <c r="G343" t="s">
+        <v>285</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>10</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D344" t="s">
+        <v>194</v>
+      </c>
+      <c r="E344" t="s">
+        <v>268</v>
+      </c>
+      <c r="F344" t="s">
+        <v>278</v>
+      </c>
+      <c r="G344" t="s">
+        <v>281</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+      <c r="I344">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D345" t="s">
+        <v>39</v>
+      </c>
+      <c r="E345" t="s">
+        <v>268</v>
+      </c>
+      <c r="F345" t="s">
+        <v>270</v>
+      </c>
+      <c r="G345" t="s">
+        <v>282</v>
+      </c>
+      <c r="H345">
+        <v>500</v>
+      </c>
+      <c r="I345">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>12</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D346" t="s">
+        <v>173</v>
+      </c>
+      <c r="E346" t="s">
+        <v>268</v>
+      </c>
+      <c r="F346" t="s">
+        <v>274</v>
+      </c>
+      <c r="G346" t="s">
+        <v>283</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D347" t="s">
+        <v>240</v>
+      </c>
+      <c r="E347" t="s">
+        <v>268</v>
+      </c>
+      <c r="G347" t="s">
+        <v>8</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D348" t="s">
+        <v>221</v>
+      </c>
+      <c r="E348" t="s">
+        <v>268</v>
+      </c>
+      <c r="F348" t="s">
+        <v>279</v>
+      </c>
+      <c r="G348" t="s">
+        <v>284</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D349" t="s">
+        <v>241</v>
+      </c>
+      <c r="E349" t="s">
+        <v>268</v>
+      </c>
+      <c r="F349" t="s">
+        <v>276</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+      <c r="I349">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>15</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45344.43888888889</v>
+      </c>
+      <c r="D350" t="s">
+        <v>226</v>
+      </c>
+      <c r="E350" t="s">
+        <v>268</v>
+      </c>
+      <c r="F350" t="s">
+        <v>277</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D351" t="s">
+        <v>242</v>
+      </c>
+      <c r="G351" t="s">
+        <v>285</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D352" t="s">
+        <v>161</v>
+      </c>
+      <c r="E352" t="s">
+        <v>268</v>
+      </c>
+      <c r="F352" t="s">
+        <v>278</v>
+      </c>
+      <c r="G352" t="s">
+        <v>281</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D353" t="s">
+        <v>128</v>
+      </c>
+      <c r="E353" t="s">
+        <v>268</v>
+      </c>
+      <c r="F353" t="s">
+        <v>270</v>
+      </c>
+      <c r="G353" t="s">
+        <v>282</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D354" t="s">
+        <v>243</v>
+      </c>
+      <c r="E354" t="s">
+        <v>268</v>
+      </c>
+      <c r="F354" t="s">
+        <v>274</v>
+      </c>
+      <c r="G354" t="s">
+        <v>283</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D355" t="s">
+        <v>244</v>
+      </c>
+      <c r="E355" t="s">
+        <v>268</v>
+      </c>
+      <c r="G355" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D356" t="s">
+        <v>224</v>
+      </c>
+      <c r="E356" t="s">
+        <v>268</v>
+      </c>
+      <c r="F356" t="s">
+        <v>279</v>
+      </c>
+      <c r="G356" t="s">
+        <v>284</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D357" t="s">
+        <v>245</v>
+      </c>
+      <c r="E357" t="s">
+        <v>268</v>
+      </c>
+      <c r="F357" t="s">
+        <v>276</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>15</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45363.38958333333</v>
+      </c>
+      <c r="D358" t="s">
+        <v>246</v>
+      </c>
+      <c r="E358" t="s">
+        <v>268</v>
+      </c>
+      <c r="F358" t="s">
+        <v>277</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>8.050000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D359" t="s">
+        <v>247</v>
+      </c>
+      <c r="G359" t="s">
+        <v>285</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>10</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D360" t="s">
+        <v>43</v>
+      </c>
+      <c r="E360" t="s">
+        <v>268</v>
+      </c>
+      <c r="F360" t="s">
+        <v>278</v>
+      </c>
+      <c r="G360" t="s">
+        <v>281</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D361" t="s">
+        <v>248</v>
+      </c>
+      <c r="E361" t="s">
+        <v>268</v>
+      </c>
+      <c r="F361" t="s">
+        <v>270</v>
+      </c>
+      <c r="G361" t="s">
+        <v>282</v>
+      </c>
+      <c r="H361">
+        <v>500</v>
+      </c>
+      <c r="I361">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>12</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D362" t="s">
+        <v>173</v>
+      </c>
+      <c r="E362" t="s">
+        <v>268</v>
+      </c>
+      <c r="F362" t="s">
+        <v>274</v>
+      </c>
+      <c r="G362" t="s">
+        <v>283</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D363" t="s">
+        <v>249</v>
+      </c>
+      <c r="E363" t="s">
+        <v>268</v>
+      </c>
+      <c r="G363" t="s">
+        <v>8</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D364" t="s">
+        <v>250</v>
+      </c>
+      <c r="E364" t="s">
+        <v>268</v>
+      </c>
+      <c r="F364" t="s">
+        <v>279</v>
+      </c>
+      <c r="G364" t="s">
+        <v>284</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>14</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D365" t="s">
+        <v>251</v>
+      </c>
+      <c r="E365" t="s">
+        <v>268</v>
+      </c>
+      <c r="F365" t="s">
+        <v>276</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>15</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45398.42430555556</v>
+      </c>
+      <c r="D366" t="s">
+        <v>252</v>
+      </c>
+      <c r="E366" t="s">
+        <v>268</v>
+      </c>
+      <c r="F366" t="s">
+        <v>277</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D367" t="s">
+        <v>184</v>
+      </c>
+      <c r="G367" t="s">
+        <v>285</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D368" t="s">
+        <v>253</v>
+      </c>
+      <c r="E368" t="s">
+        <v>268</v>
+      </c>
+      <c r="F368" t="s">
+        <v>280</v>
+      </c>
+      <c r="G368" t="s">
+        <v>281</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D369" t="s">
+        <v>254</v>
+      </c>
+      <c r="E369" t="s">
+        <v>268</v>
+      </c>
+      <c r="F369" t="s">
+        <v>270</v>
+      </c>
+      <c r="G369" t="s">
+        <v>282</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>12</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D370" t="s">
+        <v>73</v>
+      </c>
+      <c r="E370" t="s">
+        <v>268</v>
+      </c>
+      <c r="F370" t="s">
+        <v>274</v>
+      </c>
+      <c r="G370" t="s">
+        <v>283</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D371" t="s">
+        <v>255</v>
+      </c>
+      <c r="E371" t="s">
+        <v>268</v>
+      </c>
+      <c r="G371" t="s">
+        <v>8</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D372" t="s">
+        <v>256</v>
+      </c>
+      <c r="E372" t="s">
+        <v>268</v>
+      </c>
+      <c r="F372" t="s">
+        <v>279</v>
+      </c>
+      <c r="G372" t="s">
+        <v>284</v>
+      </c>
+      <c r="H372">
+        <v>500</v>
+      </c>
+      <c r="I372">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>14</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D373" t="s">
+        <v>31</v>
+      </c>
+      <c r="E373" t="s">
+        <v>268</v>
+      </c>
+      <c r="F373" t="s">
+        <v>276</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>15</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45511.39583333334</v>
+      </c>
+      <c r="D374" t="s">
+        <v>257</v>
+      </c>
+      <c r="E374" t="s">
+        <v>268</v>
+      </c>
+      <c r="F374" t="s">
+        <v>277</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>16</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D375" t="s">
+        <v>258</v>
+      </c>
+      <c r="G375" t="s">
+        <v>285</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D376" t="s">
+        <v>38</v>
+      </c>
+      <c r="E376" t="s">
+        <v>268</v>
+      </c>
+      <c r="F376" t="s">
+        <v>278</v>
+      </c>
+      <c r="G376" t="s">
+        <v>281</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>11</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D377" t="s">
+        <v>23</v>
+      </c>
+      <c r="E377" t="s">
+        <v>268</v>
+      </c>
+      <c r="F377" t="s">
+        <v>270</v>
+      </c>
+      <c r="G377" t="s">
+        <v>282</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D378" t="s">
+        <v>137</v>
+      </c>
+      <c r="E378" t="s">
+        <v>268</v>
+      </c>
+      <c r="F378" t="s">
+        <v>274</v>
+      </c>
+      <c r="G378" t="s">
+        <v>283</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D379" t="s">
+        <v>259</v>
+      </c>
+      <c r="E379" t="s">
+        <v>268</v>
+      </c>
+      <c r="G379" t="s">
+        <v>8</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>13</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D380" t="s">
+        <v>260</v>
+      </c>
+      <c r="E380" t="s">
+        <v>268</v>
+      </c>
+      <c r="F380" t="s">
+        <v>279</v>
+      </c>
+      <c r="G380" t="s">
+        <v>284</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>14</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D381" t="s">
+        <v>158</v>
+      </c>
+      <c r="E381" t="s">
+        <v>268</v>
+      </c>
+      <c r="F381" t="s">
+        <v>276</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>15</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45558.41180555556</v>
+      </c>
+      <c r="D382" t="s">
+        <v>206</v>
+      </c>
+      <c r="E382" t="s">
+        <v>268</v>
+      </c>
+      <c r="F382" t="s">
+        <v>277</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>16</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D383" t="s">
+        <v>156</v>
+      </c>
+      <c r="G383" t="s">
+        <v>285</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D384" t="s">
+        <v>197</v>
+      </c>
+      <c r="E384" t="s">
+        <v>268</v>
+      </c>
+      <c r="F384" t="s">
+        <v>278</v>
+      </c>
+      <c r="G384" t="s">
+        <v>281</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D385" t="s">
+        <v>23</v>
+      </c>
+      <c r="E385" t="s">
+        <v>268</v>
+      </c>
+      <c r="F385" t="s">
+        <v>270</v>
+      </c>
+      <c r="G385" t="s">
+        <v>282</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+      <c r="I385">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D386" t="s">
+        <v>261</v>
+      </c>
+      <c r="E386" t="s">
+        <v>268</v>
+      </c>
+      <c r="F386" t="s">
+        <v>274</v>
+      </c>
+      <c r="G386" t="s">
+        <v>283</v>
+      </c>
+      <c r="H386">
+        <v>600</v>
+      </c>
+      <c r="I386">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8</v>
+      </c>
+      <c r="C387" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D387" t="s">
+        <v>262</v>
+      </c>
+      <c r="E387" t="s">
+        <v>268</v>
+      </c>
+      <c r="G387" t="s">
+        <v>8</v>
+      </c>
+      <c r="H387">
+        <v>600</v>
+      </c>
+      <c r="I387">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>13</v>
+      </c>
+      <c r="C388" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D388" t="s">
+        <v>263</v>
+      </c>
+      <c r="E388" t="s">
+        <v>268</v>
+      </c>
+      <c r="F388" t="s">
+        <v>279</v>
+      </c>
+      <c r="G388" t="s">
+        <v>284</v>
+      </c>
+      <c r="H388">
+        <v>600</v>
+      </c>
+      <c r="I388">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>14</v>
+      </c>
+      <c r="C389" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D389" t="s">
+        <v>264</v>
+      </c>
+      <c r="E389" t="s">
+        <v>268</v>
+      </c>
+      <c r="F389" t="s">
+        <v>276</v>
+      </c>
+      <c r="H389">
+        <v>600</v>
+      </c>
+      <c r="I389">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>15</v>
+      </c>
+      <c r="C390" s="2">
+        <v>45587.41180555556</v>
+      </c>
+      <c r="D390" t="s">
+        <v>257</v>
+      </c>
+      <c r="E390" t="s">
+        <v>268</v>
+      </c>
+      <c r="F390" t="s">
+        <v>277</v>
+      </c>
+      <c r="H390">
+        <v>600</v>
+      </c>
+      <c r="I390">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>16</v>
+      </c>
+      <c r="C391" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D391" t="s">
+        <v>265</v>
+      </c>
+      <c r="G391" t="s">
+        <v>285</v>
+      </c>
+      <c r="H391">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>10</v>
+      </c>
+      <c r="C392" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D392" t="s">
+        <v>148</v>
+      </c>
+      <c r="E392" t="s">
+        <v>268</v>
+      </c>
+      <c r="F392" t="s">
+        <v>278</v>
+      </c>
+      <c r="G392" t="s">
+        <v>281</v>
+      </c>
+      <c r="H392">
+        <v>600</v>
+      </c>
+      <c r="I392">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D393" t="s">
+        <v>266</v>
+      </c>
+      <c r="E393" t="s">
+        <v>268</v>
+      </c>
+      <c r="F393" t="s">
+        <v>270</v>
+      </c>
+      <c r="G393" t="s">
+        <v>282</v>
+      </c>
+      <c r="H393">
+        <v>600</v>
+      </c>
+      <c r="I393">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>12</v>
+      </c>
+      <c r="C394" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D394" t="s">
+        <v>40</v>
+      </c>
+      <c r="E394" t="s">
+        <v>268</v>
+      </c>
+      <c r="F394" t="s">
+        <v>274</v>
+      </c>
+      <c r="G394" t="s">
+        <v>283</v>
+      </c>
+      <c r="H394">
+        <v>600</v>
+      </c>
+      <c r="I394">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8</v>
+      </c>
+      <c r="C395" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D395" t="s">
+        <v>193</v>
+      </c>
+      <c r="E395" t="s">
+        <v>268</v>
+      </c>
+      <c r="G395" t="s">
+        <v>8</v>
+      </c>
+      <c r="H395">
+        <v>600</v>
+      </c>
+      <c r="I395">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>13</v>
+      </c>
+      <c r="C396" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>62</v>
+      </c>
+      <c r="E396" t="s">
+        <v>268</v>
+      </c>
+      <c r="F396" t="s">
+        <v>279</v>
+      </c>
+      <c r="G396" t="s">
+        <v>284</v>
+      </c>
+      <c r="H396">
+        <v>600</v>
+      </c>
+      <c r="I396">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" t="s">
+        <v>14</v>
+      </c>
+      <c r="C397" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D397" t="s">
+        <v>267</v>
+      </c>
+      <c r="E397" t="s">
+        <v>268</v>
+      </c>
+      <c r="F397" t="s">
+        <v>276</v>
+      </c>
+      <c r="H397">
+        <v>600</v>
+      </c>
+      <c r="I397">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>15</v>
+      </c>
+      <c r="C398" s="2">
+        <v>45636.4</v>
+      </c>
+      <c r="D398" t="s">
+        <v>27</v>
+      </c>
+      <c r="E398" t="s">
+        <v>268</v>
+      </c>
+      <c r="F398" t="s">
+        <v>277</v>
+      </c>
+      <c r="H398">
+        <v>600</v>
+      </c>
+      <c r="I398">
+        <v>8.19</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeHerbert_2f9facd890.xlsx
+++ b/data/Lakes/LakeHerbert_2f9facd890.xlsx
@@ -64,7 +64,7 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.1300</t>
